--- a/FunWorld_War/Assets/Excel/NPC.xlsx
+++ b/FunWorld_War/Assets/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,18 +347,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -679,7 +673,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,16 +697,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -721,85 +715,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1132,7 +1126,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/FunWorld_War/Assets/Excel/NPC.xlsx
+++ b/FunWorld_War/Assets/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="13515"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>NPC表</t>
+  </si>
+  <si>
+    <t>npcid_k</t>
+  </si>
+  <si>
+    <t>nameid</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>vocation</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>avalue_base</t>
+  </si>
+  <si>
+    <t>avalue_senior</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>skill_passive</t>
+  </si>
+  <si>
+    <t>build_time</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>upgrade_gold</t>
+  </si>
+  <si>
+    <t>upgrade_item</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t>//注释,npcid</t>
   </si>
@@ -89,69 +158,6 @@
   </si>
   <si>
     <t>升级消耗道具</t>
-  </si>
-  <si>
-    <t>npcid_k</t>
-  </si>
-  <si>
-    <t>nameid</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>camp</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>vocation</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>avalue_base</t>
-  </si>
-  <si>
-    <t>avalue_senior</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>skill_passive</t>
-  </si>
-  <si>
-    <t>build_time</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>upgrade_gold</t>
-  </si>
-  <si>
-    <t>upgrade_item</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>竞技场剑盾士兵-帝国</t>
@@ -1123,435 +1129,470 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="19" width="18.375" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="26" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="20" width="18.375" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="27" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1"/>
+      <c r="I1" s="2"/>
+      <c r="J1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:21">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="40.5" spans="1:21">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>200010001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>20010001</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>200010001</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>200010002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>20010002</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>200010001</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>20010001</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>200010003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>20010003</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>200010001</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>200010002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>20010002</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>200010004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>20010004</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>200010001</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>200010003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>20010003</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>200010005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>20010005</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>200010001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>200010004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>20010004</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>200010006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>20010006</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>200010001</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>200010005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>20010005</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+    <row r="11" customFormat="1" spans="2:11">
+      <c r="B11">
+        <v>200010007</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>20010007</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>200010001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>200010006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>20010006</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>200010008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>20010008</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>200010001</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10">
-        <v>200010007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>20010007</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>200010001</v>
+    <row r="13" spans="2:11">
+      <c r="B13">
+        <v>200010009</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>20020001</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>200020001</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>200010008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>20010008</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>200010001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>200010009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>20020001</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>200020001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="14" spans="2:11">
+      <c r="B14">
         <v>200010010</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
         <v>20020002</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>200020001</v>
       </c>
     </row>
